--- a/data/Paiguano.xlsx
+++ b/data/Paiguano.xlsx
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Construcción Sala de Conferencias y Multiusos Gabriela Mistral</t>
+          <t>Reposición Jardín Familiar de Paihuano</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2699,7 +2699,7 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>240</v>
+        <v>40</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -2713,7 +2713,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1139&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=701&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Reposición Jardín Familiar de Paihuano</t>
+          <t>Construcción Sala de Conferencias y Multiusos Gabriela Mistral</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2747,7 +2747,7 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
@@ -2761,7 +2761,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=701&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1139&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">

--- a/data/Paiguano.xlsx
+++ b/data/Paiguano.xlsx
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Reposición Jardín Familiar de Paihuano</t>
+          <t>Construcción Sala de Conferencias y Multiusos Gabriela Mistral</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2699,7 +2699,7 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -2713,7 +2713,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=701&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1139&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Construcción Sala de Conferencias y Multiusos Gabriela Mistral</t>
+          <t>Reposición Jardín Familiar de Paihuano</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2747,7 +2747,7 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>240</v>
+        <v>40</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
@@ -2761,7 +2761,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1139&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=701&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
